--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1555960.197755782</v>
+        <v>1624669.295527182</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6619611.269857644</v>
+        <v>7185888.949590196</v>
       </c>
     </row>
     <row r="11">
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>90.40013928040797</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>118.9618623616406</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>138.2463772119841</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18.68225449881076</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>257.519313795844</v>
+        <v>162.2152055211285</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1054,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>121.5805385097617</v>
       </c>
       <c r="E7" t="n">
-        <v>129.8174841786</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.4009793646907</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1139,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>71.21229122917212</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1293,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>164.4833224169705</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>25.65422259088181</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>400.7170529009711</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1667,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>75.68373988188461</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,19 +2010,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>23.21667099043999</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.97279502168107</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>61.13144810283892</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>71.04375511693071</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>12.82988994717986</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2950,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>79.47996908724096</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3190,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>174.4652188716418</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>207.0859812786262</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3326,7 +3328,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>51.69511841098215</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>265.3439815931928</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>146.7373013332761</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>308.8221481121856</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>110.6098417289055</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3961,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3983,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>161.5086652982957</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>98.26334559068071</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>543.92053698516</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C2" t="n">
-        <v>117.01980699846</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D2" t="n">
-        <v>97.76759022386436</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>75.83105441212597</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.853728201993</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1090.853728201993</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1090.853728201993</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1474.987448089748</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2243.150433230194</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V2" t="n">
-        <v>1885.661018356443</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W2" t="n">
-        <v>1489.26966865679</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X2" t="n">
-        <v>1369.1061713218</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y2" t="n">
-        <v>963.76890127669</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>326.146107551374</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>326.146107551374</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>999.9477586646882</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M3" t="n">
-        <v>999.9477586646882</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N3" t="n">
-        <v>1398.990771989513</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O3" t="n">
-        <v>1398.990771989513</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
-        <v>1398.990771989513</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1263.455061019072</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C4" t="n">
-        <v>1091.482497897988</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D4" t="n">
-        <v>951.8396926333571</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E4" t="n">
-        <v>951.8396926333571</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8396926333571</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>2206.040288322164</v>
       </c>
       <c r="S4" t="n">
-        <v>2722.430913589148</v>
+        <v>2035.905240841299</v>
       </c>
       <c r="T4" t="n">
-        <v>2479.091565815048</v>
+        <v>1792.565893067199</v>
       </c>
       <c r="U4" t="n">
-        <v>2479.091565815048</v>
+        <v>1512.381444567503</v>
       </c>
       <c r="V4" t="n">
-        <v>2197.380098423077</v>
+        <v>1230.669977175532</v>
       </c>
       <c r="W4" t="n">
-        <v>1922.52769459559</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="X4" t="n">
-        <v>1679.963798041395</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="Y4" t="n">
-        <v>1453.621029731137</v>
+        <v>955.8175733480448</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1790.938620362901</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C5" t="n">
-        <v>1364.037890376201</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>940.7452695612013</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>514.7683297090589</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>89.64414789845907</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1402.051920498411</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.853571611725</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2464.07600418556</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2464.07600418556</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>2464.07600418556</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X5" t="n">
-        <v>2456.396409393712</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.059139348602</v>
+        <v>328.6803539293841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>643.169810791496</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>643.169810791496</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>643.169810791496</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>643.169810791496</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>1316.97146190481</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>448.662731302312</v>
+        <v>511.1411871531062</v>
       </c>
       <c r="C7" t="n">
-        <v>448.662731302312</v>
+        <v>339.1686240320222</v>
       </c>
       <c r="D7" t="n">
-        <v>285.3459584290827</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>154.217186531507</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2187.823032372085</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1944.483684597984</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1664.299236098289</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1382.587768706318</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1107.735364878831</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>865.1714683246356</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.8287000143777</v>
+        <v>701.3071558651718</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2492.84740292927</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C8" t="n">
-        <v>2065.94667294257</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D8" t="n">
-        <v>1642.654052127571</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.677112275428</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>791.5529304648283</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1931.072927593931</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>2604.874578707245</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2714.7513187973</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y8" t="n">
-        <v>2713.454452792594</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>278.5276838214469</v>
+        <v>548.761739098607</v>
       </c>
       <c r="C10" t="n">
-        <v>106.5551207003629</v>
+        <v>382.616968980455</v>
       </c>
       <c r="D10" t="n">
-        <v>54.44861827178296</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E10" t="n">
-        <v>54.44861827178296</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>1207.834372675125</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0364208437705</v>
+        <v>965.2704761209305</v>
       </c>
       <c r="Y10" t="n">
-        <v>468.6936525335126</v>
+        <v>738.9277078106726</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>505.4861562347886</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>479.5728000823827</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>479.5728000823827</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.853728201993</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1090.853728201993</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1257.271276480617</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>1931.072927593931</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2397.138048506922</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2138.783139103334</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2138.783139103334</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>1742.391789403681</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>1330.671790571428</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>925.3345205263187</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>1527.360679530236</v>
       </c>
       <c r="M12" t="n">
-        <v>515.5329466256644</v>
+        <v>1527.360679530236</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1527.360679530236</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>2234.861645684911</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>884.7646205344768</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>884.7646205344768</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>884.7646205344768</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>458.7876806823343</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2464.07600418556</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2106.58658931181</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.58658931181</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1694.866590479557</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1289.529320434448</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>515.5329466256644</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>605.867477820625</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>605.867477820625</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>442.5507049473957</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>366.102482844482</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1264.940111397143</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1022.376214842949</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>796.0334465326906</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7433331113961</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730673</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149731</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
         <v>4659.050190787244</v>
@@ -5540,25 +5542,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>604.7287118149693</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>441.41193894174</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>441.41193894174</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>269.5501647163004</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>269.5501647163004</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>125.7538962244548</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325703</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.628073325703</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y19" t="n">
-        <v>1185.483835930065</v>
+        <v>966.867243648119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2173.928190028515</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1930.588842254415</v>
       </c>
       <c r="U22" t="n">
-        <v>4654.622661723635</v>
+        <v>1650.404393754719</v>
       </c>
       <c r="V22" t="n">
-        <v>4654.622661723635</v>
+        <v>1368.692926362748</v>
       </c>
       <c r="W22" t="n">
-        <v>4654.622661723635</v>
+        <v>1093.840522535261</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>851.2766259810664</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>624.9338576708085</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1437.433383623377</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>1437.433383623377</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1437.433383623377</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3619.314716995755</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3447.342153874671</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>3284.025381001441</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>3117.817175154295</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>2945.955400928855</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791732</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4553.23975439976</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>4278.387350572273</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X25" t="n">
-        <v>4035.823454018078</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.48068570782</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="26">
@@ -6233,13 +6235,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3449.17966951489</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>3277.207106393806</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>3113.890333520576</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>2947.68212767343</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>2947.68212767343</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>2947.68212767343</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4945.000622810562</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>4664.816174310867</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V28" t="n">
-        <v>4383.104706918895</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W28" t="n">
-        <v>4108.252303091408</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>3865.688406537213</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3639.345638226955</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6552,7 +6554,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2176.752350469914</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>1933.413002695814</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U31" t="n">
-        <v>1653.228554196118</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.517086804147</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W31" t="n">
-        <v>1096.66468297666</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X31" t="n">
-        <v>854.1007864224655</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y31" t="n">
-        <v>627.7580181122075</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>440.5322462326804</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C34" t="n">
-        <v>268.5596831115964</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D34" t="n">
-        <v>268.5596831115964</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E34" t="n">
-        <v>268.5596831115964</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>1936.353199528353</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U34" t="n">
-        <v>1656.168751028657</v>
+        <v>2026.499368638831</v>
       </c>
       <c r="V34" t="n">
-        <v>1374.457283636686</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="W34" t="n">
-        <v>1099.604879809199</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X34" t="n">
-        <v>857.040983255004</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y34" t="n">
-        <v>630.698214944746</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6941,22 +6943,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6971,7 +6973,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7175,16 +7177,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
         <v>4406.8563911335</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V40" t="n">
-        <v>2019.640305074347</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W40" t="n">
-        <v>1744.78790124686</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692665</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1755.743090736225</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.842360749525</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>905.5497399345252</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>1402.051920498411</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>2075.853571611725</v>
+        <v>4295.567964791577</v>
       </c>
       <c r="P41" t="n">
-        <v>2266.345434084965</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.07600418556</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2464.07600418556</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2067.684654485907</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>2067.684654485907</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2067.684654485907</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>644.9335448401225</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>644.9335448401225</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M42" t="n">
-        <v>1318.735195953437</v>
+        <v>4251.146151345041</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.735195953437</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1187.311696509325</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>1015.339133388241</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D43" t="n">
-        <v>852.0223605150118</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="E43" t="n">
-        <v>685.8141546678653</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="F43" t="n">
-        <v>685.8141546678653</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="G43" t="n">
-        <v>685.8141546678653</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="H43" t="n">
-        <v>542.0178861760197</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="I43" t="n">
-        <v>542.0178861760197</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>599.5092144001777</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>826.0368156060149</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>1180.726136900436</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1571.911931870686</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1949.403442746722</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>2304.831571426485</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2595.430783348386</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.430913589148</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.430913589148</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2552.295866108283</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2440.568753250803</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>2160.384304751107</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1878.672837359136</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1603.820433531649</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>1603.820433531649</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1377.477665221391</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1734.105213294634</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C44" t="n">
-        <v>1307.204483307934</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D44" t="n">
-        <v>883.9118624929341</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E44" t="n">
-        <v>883.9118624929341</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F44" t="n">
-        <v>458.7876806823343</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W44" t="n">
-        <v>2722.430913589148</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X44" t="n">
-        <v>2559.290847631274</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y44" t="n">
-        <v>2153.953577586164</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>515.5329466256644</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>813.1355650385105</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C46" t="n">
-        <v>713.8796604014593</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D46" t="n">
-        <v>713.8796604014593</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E46" t="n">
-        <v>713.8796604014593</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F46" t="n">
-        <v>542.0178861760197</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>542.0178861760197</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>542.0178861760197</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>542.0178861760197</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>599.5092144001777</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>826.0368156060149</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>1180.726136900436</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1571.911931870686</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1949.403442746722</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>2304.831571426485</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2595.430783348386</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.430913589148</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.430913589148</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2552.295866108283</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.956518334183</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>2028.772069834487</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>1747.060602442516</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W46" t="n">
-        <v>1472.208198615029</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X46" t="n">
-        <v>1229.644302060834</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.301533750576</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>425.293481306926</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8061,13 +8063,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>549.9687528290792</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>424.4167790466985</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>110.4928214404736</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>571.9400154420696</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>617.1829579462631</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8310,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>571.6442764662844</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>703.1228151115166</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>487.0847740255431</v>
+        <v>96.76900350898808</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5297965142038</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>127.957333813856</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8769,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>408.4283502568324</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>571.7556129878624</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>488.8385263243295</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>779.697912545697</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,10 +9403,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>348.6939416158729</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9647,7 +9649,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9726,16 +9728,16 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>31.27739019491188</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10200,10 +10202,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>498.5385371580963</v>
       </c>
       <c r="L32" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10589,16 +10591,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10835,7 +10837,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10911,7 +10913,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>612.9672264389048</v>
       </c>
       <c r="P41" t="n">
-        <v>229.9913845104732</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11139,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O42" t="n">
-        <v>573.0719431554102</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11300,25 +11302,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>1007.329866490261</v>
       </c>
       <c r="O44" t="n">
-        <v>571.7556129878624</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11381,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>396.977500095951</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.93282774764367</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>88.86238390679037</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.55421158668679</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.1065456054743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>107.3022489032176</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>129.5284158597473</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>79.23215548632197</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>90.77286840263218</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24853,7 +24855,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>66.44073542471725</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>70.29662273607258</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>6.759898196019265</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>41.52700769166887</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>106.8277325364291</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -25801,10 +25803,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>130.2961125674535</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>246.0941335456345</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>71.98949189919243</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050456</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414971.4707635469</v>
+        <v>608779.4123960861</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414971.4707635468</v>
+        <v>608779.4123960863</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618233.443451192</v>
+        <v>618233.4434511921</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618233.4434511921</v>
+        <v>618233.443451192</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618233.4434511921</v>
+        <v>618233.443451192</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>618233.4434511919</v>
+        <v>618233.443451192</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>618233.443451192</v>
+        <v>618233.4434511921</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414971.4707635469</v>
+        <v>608779.4123960861</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414971.4707635468</v>
+        <v>608779.4123960863</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.734207256</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072557</v>
       </c>
       <c r="D2" t="n">
         <v>378587.734207256</v>
       </c>
       <c r="E2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="F2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="G2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="H2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="I2" t="n">
-        <v>365319.7620393406</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="K2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.762039341</v>
       </c>
       <c r="L2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="M2" t="n">
+        <v>365319.7620393408</v>
+      </c>
+      <c r="N2" t="n">
         <v>365319.7620393407</v>
       </c>
-      <c r="N2" t="n">
-        <v>365319.7620393406</v>
-      </c>
       <c r="O2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431417</v>
       </c>
       <c r="P2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117636.3073549515</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="C4" t="n">
-        <v>117636.3073549515</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>117636.3073549515</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421075</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433672</v>
@@ -26445,19 +26447,19 @@
         <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421075</v>
+        <v>786.906642425063</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421075</v>
+        <v>786.9066424250631</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42144.4267979345</v>
+        <v>-14770.99957720237</v>
       </c>
       <c r="C6" t="n">
-        <v>185942.8769657495</v>
+        <v>171633.7338375347</v>
       </c>
       <c r="D6" t="n">
-        <v>185942.8769657495</v>
+        <v>171633.733837535</v>
       </c>
       <c r="E6" t="n">
-        <v>203312.2075965987</v>
+        <v>75455.61677612338</v>
       </c>
       <c r="F6" t="n">
-        <v>203312.2075965986</v>
+        <v>282887.9043926843</v>
       </c>
       <c r="G6" t="n">
-        <v>122818.5187807818</v>
+        <v>279144.0175074862</v>
       </c>
       <c r="H6" t="n">
         <v>286769.6395909677</v>
       </c>
       <c r="I6" t="n">
-        <v>286769.6395909675</v>
+        <v>286769.6395909677</v>
       </c>
       <c r="J6" t="n">
-        <v>108692.7111021879</v>
+        <v>141235.9696561513</v>
       </c>
       <c r="K6" t="n">
-        <v>286769.6395909678</v>
+        <v>286769.6395909679</v>
       </c>
       <c r="L6" t="n">
         <v>286769.6395909677</v>
       </c>
       <c r="M6" t="n">
-        <v>286769.6395909676</v>
+        <v>113639.1483853282</v>
       </c>
       <c r="N6" t="n">
         <v>286769.6395909676</v>
       </c>
       <c r="O6" t="n">
-        <v>203312.2075965986</v>
+        <v>282887.9043926842</v>
       </c>
       <c r="P6" t="n">
-        <v>203312.2075965986</v>
+        <v>282887.9043926845</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.514381444605</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>288.6409364822896</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.43722793251291</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>27.88597268088782</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.1305668527708</v>
+        <v>253.4346751274862</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.10306663473527</v>
       </c>
       <c r="E7" t="n">
-        <v>34.72863961007502</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27792,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197.2489012839241</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5.769515072902692</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>388.01385847248</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>403.0737508331568</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>534.3646536318383</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>594.6678712320335</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>534.3646536318383</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>465.7417458120015</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>168.098533614772</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>90.56637445783191</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>534.3646536318383</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7417458120015</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>742.2666496462653</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36367,7 +36369,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9.506548990083218</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>462.773936363287</v>
       </c>
       <c r="L32" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37309,16 +37311,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37555,7 +37557,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37631,7 +37633,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>575.5762670828807</v>
       </c>
       <c r="P41" t="n">
-        <v>192.4160227002419</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O42" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>970.0502436558146</v>
       </c>
       <c r="O44" t="n">
-        <v>534.3646536318383</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624669.295527182</v>
+        <v>1623951.305412323</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076074</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>90.40013928040797</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>154.6054260348451</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -825,10 +825,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.68225449881076</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0.7573427009628357</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.2152055211285</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>306.7023013090827</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>121.5805385097617</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>71.21229122917212</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>326.6257644515839</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>164.4833224169705</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>2.738312485821604</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>284.4554049657235</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>292.3236405495131</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>28.04024762472624</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.68373988188461</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>23.21667099043999</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>126.0481962669387</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>61.13144810283892</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.04375511693071</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>79.47996908724096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>31.11661068715809</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3207,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>207.0859812786262</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3435,13 +3435,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>54.98739250759328</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>265.3439815931928</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.7373013332761</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.7573427009620479</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3711,13 +3711,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>251.1229502582098</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>25.45817320599492</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>51.58543740429393</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>29.89949249262188</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>98.15366458399244</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.9701437626245</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4330,25 +4330,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>2107.354917580474</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1770.875776931517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1770.875776931517</v>
+        <v>2068.744155457483</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.155778099264</v>
+        <v>1657.02415662523</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8185080541546</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N3" t="n">
+        <v>287.7093087981016</v>
+      </c>
+      <c r="O3" t="n">
         <v>838.3748437825398</v>
-      </c>
-      <c r="M3" t="n">
-        <v>838.3748437825398</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1389.040378766978</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
         <v>1389.040378766978</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.8175733480448</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C4" t="n">
-        <v>783.8450102269608</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D4" t="n">
-        <v>620.5282373537315</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
         <v>454.3200315065851</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2206.040288322164</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2035.905240841299</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1792.565893067199</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1512.381444567503</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V4" t="n">
-        <v>1230.669977175532</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W4" t="n">
-        <v>955.8175733480448</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X4" t="n">
-        <v>955.8175733480448</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.8175733480448</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.8266109787492</v>
+        <v>1141.340168271051</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9662850324534</v>
+        <v>1118.479842324755</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>1099.22762555016</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>1077.291089738421</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>652.1669079278215</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,49 +4570,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.1289725064</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1145.737622806746</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>734.0176239744937</v>
+        <v>1562.485398567287</v>
       </c>
       <c r="Y5" t="n">
-        <v>328.6803539293841</v>
+        <v>1157.148128522177</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O6" t="n">
         <v>866.8612493132769</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.1411871531062</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>339.1686240320222</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>216.3599992746871</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>927.6499241754298</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.3071558651718</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0056192934842</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>561.1048893067843</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>137.8122684917846</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.853983585014</v>
+        <v>145.7376999733464</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>548.761739098607</v>
+        <v>548.7617390986079</v>
       </c>
       <c r="C10" t="n">
-        <v>382.616968980455</v>
+        <v>376.7891759775239</v>
       </c>
       <c r="D10" t="n">
-        <v>382.616968980455</v>
+        <v>213.4724031042946</v>
       </c>
       <c r="E10" t="n">
-        <v>382.616968980455</v>
+        <v>47.26419725714814</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
         <v>44.49822504924753</v>
@@ -4959,55 +4959,55 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V10" t="n">
-        <v>1482.686776502612</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W10" t="n">
-        <v>1207.834372675125</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X10" t="n">
-        <v>965.2704761209305</v>
+        <v>965.2704761209314</v>
       </c>
       <c r="Y10" t="n">
-        <v>738.9277078106726</v>
+        <v>738.9277078106735</v>
       </c>
     </row>
     <row r="11">
@@ -5056,13 +5056,13 @@
         <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>4178.011629909674</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5071,13 +5071,13 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
         <v>3775.38136270537</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>690.5618714473296</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L12" t="n">
-        <v>1527.360679530236</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M12" t="n">
-        <v>1527.360679530236</v>
+        <v>379.221077120493</v>
       </c>
       <c r="N12" t="n">
-        <v>1527.360679530236</v>
+        <v>379.221077120493</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1268.702355131965</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286538</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075698</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.081047832659</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051723</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509774</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407195</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
         <v>432.8421946614841</v>
@@ -5278,22 +5278,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4570.892110530337</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
         <v>5003.847243949504</v>
@@ -5311,19 +5311,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.063482855035</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>605.867477820625</v>
+        <v>776.3764577784281</v>
       </c>
       <c r="C16" t="n">
-        <v>605.867477820625</v>
+        <v>604.403894657344</v>
       </c>
       <c r="D16" t="n">
-        <v>442.5507049473957</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E16" t="n">
-        <v>366.102482844482</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V16" t="n">
-        <v>1539.792515224631</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W16" t="n">
-        <v>1264.940111397143</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.376214842949</v>
+        <v>1031.042708537904</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.0334465326906</v>
+        <v>804.6999402276465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>776.7012749360533</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>604.7287118149693</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>441.41193894174</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>441.41193894174</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>269.5501647163004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>269.5501647163004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>125.7538962244548</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1710.626312340059</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1435.773908512572</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1193.210011958377</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.867243648119</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5779,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.7678889587429</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>434.7678889587429</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D22" t="n">
-        <v>434.7678889587429</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2173.928190028515</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1930.588842254415</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1650.404393754719</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1368.692926362748</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1093.840522535261</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>851.2766259810664</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>624.9338576708085</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1257.245204735046</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6302,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2039.376393044857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,19 +6469,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2856.963518260713</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>2026.499368638831</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1744.78790124686</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1744.78790124686</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>1502.224004692665</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.881236382407</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6949,13 +6949,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3950.770911629316</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7013,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>759.1116442217531</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>587.139081100669</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>423.8223082274397</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>257.6141023802933</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>2112.580693338092</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>4362.434577686964</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3200.748180843791</v>
+        <v>1020.040622710153</v>
       </c>
       <c r="C40" t="n">
-        <v>3200.748180843791</v>
+        <v>848.0680595890694</v>
       </c>
       <c r="D40" t="n">
-        <v>3200.748180843791</v>
+        <v>684.7512867158401</v>
       </c>
       <c r="E40" t="n">
-        <v>3200.748180843791</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>3200.748180843791</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>3034.491211138023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004482</v>
+        <v>1679.113256286672</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450287</v>
+        <v>1436.549359732477</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140029</v>
+        <v>1210.206591422219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
         <v>2111.574999549778</v>
@@ -7411,22 +7411,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>4295.567964791577</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
         <v>5003.847243949504</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M42" t="n">
-        <v>4251.146151345041</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N42" t="n">
-        <v>5003.847243949504</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O42" t="n">
-        <v>5003.847243949504</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P42" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286538</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1834473075698</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>152.1834473075698</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>152.1834473075698</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F43" t="n">
-        <v>152.1834473075698</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>152.1834473075698</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>152.1834473075698</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.081047832659</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051723</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509774</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407195</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2533.780365848253</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2106.879635861554</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1683.587015046554</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1257.610075194411</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>832.4858933838116</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>428.1468309732602</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>130.278452447295</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.988093917325</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2994.337835136581</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3839.482485287394</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4547.761764445321</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
         <v>5003.847243949504</v>
@@ -7675,25 +7675,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>5003.847243949504</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4782.921672994137</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4524.566763590549</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4167.077348716799</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3770.685999017146</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3358.966000184893</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.628730139784</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.063482855035</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
         <v>1908.7645754595</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.1946237414806</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>199.2220606203966</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
         <v>100.0769448789901</v>
@@ -7833,25 +7833,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2110.354924811253</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1867.015577037153</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1586.831128537457</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1305.119661145486</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1030.267257317999</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>787.7033607638042</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>561.3605924535462</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8057,25 +8057,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>549.9687528290792</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>267.0107895760205</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8218,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>110.4928214404736</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8309,7 +8309,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>549.2245073196783</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>177.813198534673</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8704,16 +8704,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>127.957333813856</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>408.4283502568324</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>474.9037794053499</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>200.0929141007635</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>779.697912545697</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>348.6939416158729</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,10 +9883,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>883.9207714806259</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10117,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>995.9774475394116</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>693.8194039897608</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10597,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11074,10 +11074,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>612.9672264389048</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,16 +11308,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1007.329866490261</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>160.2240614002187</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>88.86238390679037</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23907,10 +23907,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>75.55421158668679</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>35.63540887755832</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>107.3022489032176</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>90.77286840263218</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.136226802715</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>70.29662273607258</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>115.1557639755919</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>6.759898196019265</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.52700769166887</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>163.7887810877129</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>4.648410051341983</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>144.6849832771903</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.648410051341621</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>63.52994056050456</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608779.4123960863</v>
+        <v>608779.4123960861</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>618233.4434511921</v>
+        <v>618233.443451192</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>618233.4434511921</v>
+        <v>618233.443451192</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608779.4123960863</v>
+        <v>608779.4123960861</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
-        <v>378587.7342072557</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.734207256</v>
+        <v>378587.7342072558</v>
       </c>
       <c r="E2" t="n">
         <v>359733.2891431418</v>
       </c>
       <c r="F2" t="n">
-        <v>359733.2891431418</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="G2" t="n">
         <v>365319.7620393407</v>
@@ -26334,19 +26334,19 @@
         <v>365319.7620393407</v>
       </c>
       <c r="I2" t="n">
+        <v>365319.7620393406</v>
+      </c>
+      <c r="J2" t="n">
         <v>365319.7620393407</v>
       </c>
-      <c r="J2" t="n">
-        <v>365319.7620393408</v>
-      </c>
       <c r="K2" t="n">
-        <v>365319.762039341</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="L2" t="n">
+        <v>365319.7620393406</v>
+      </c>
+      <c r="M2" t="n">
         <v>365319.7620393407</v>
-      </c>
-      <c r="M2" t="n">
-        <v>365319.7620393408</v>
       </c>
       <c r="N2" t="n">
         <v>365319.7620393407</v>
@@ -26355,7 +26355,7 @@
         <v>359733.2891431417</v>
       </c>
       <c r="P2" t="n">
-        <v>359733.2891431419</v>
+        <v>359733.2891431417</v>
       </c>
     </row>
     <row r="3">
@@ -26429,37 +26429,37 @@
         <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>786.906642425063</v>
       </c>
       <c r="P4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14770.99957720237</v>
+        <v>-14770.99957720243</v>
       </c>
       <c r="C6" t="n">
+        <v>171633.7338375349</v>
+      </c>
+      <c r="D6" t="n">
         <v>171633.7338375347</v>
       </c>
-      <c r="D6" t="n">
-        <v>171633.733837535</v>
-      </c>
       <c r="E6" t="n">
-        <v>75455.61677612338</v>
+        <v>75383.09967972289</v>
       </c>
       <c r="F6" t="n">
-        <v>282887.9043926843</v>
+        <v>282815.3872962839</v>
       </c>
       <c r="G6" t="n">
-        <v>279144.0175074862</v>
+        <v>279092.9868453019</v>
       </c>
       <c r="H6" t="n">
-        <v>286769.6395909677</v>
+        <v>286718.6089287834</v>
       </c>
       <c r="I6" t="n">
-        <v>286769.6395909677</v>
+        <v>286718.6089287833</v>
       </c>
       <c r="J6" t="n">
-        <v>141235.9696561513</v>
+        <v>141184.9389939669</v>
       </c>
       <c r="K6" t="n">
-        <v>286769.6395909679</v>
+        <v>286718.6089287833</v>
       </c>
       <c r="L6" t="n">
-        <v>286769.6395909677</v>
+        <v>286718.6089287833</v>
       </c>
       <c r="M6" t="n">
-        <v>113639.1483853282</v>
+        <v>113588.1177231438</v>
       </c>
       <c r="N6" t="n">
-        <v>286769.6395909676</v>
+        <v>286718.6089287834</v>
       </c>
       <c r="O6" t="n">
-        <v>282887.9043926842</v>
+        <v>282815.3872962837</v>
       </c>
       <c r="P6" t="n">
-        <v>282887.9043926845</v>
+        <v>282815.3872962838</v>
       </c>
     </row>
   </sheetData>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>263.514381444605</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>237.8220101678115</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.88597268088782</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>276.6252613137359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>253.4346751274862</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,61 +27627,61 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>93.59337047736312</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34.5479025439635</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>103.323621185591</v>
+      </c>
+      <c r="T5" t="n">
+        <v>218.7163152458132</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>353.914520725013</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>400</v>
-      </c>
-      <c r="H5" t="n">
-        <v>294.8896947407055</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>255.7713603095518</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.10306663473527</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>350.5048792244489</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>74.65813289307465</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5.769515072902692</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>167.4048439973636</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>245.6677613624788</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>527.4536661148496</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35424,16 +35424,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>90.56637445783191</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>385.2564605346102</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>437.3284175951186</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.6936802674301</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>742.2666496462653</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>310.3818991832499</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36369,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,10 +36603,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>846.4895085811942</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>958.5461846399799</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37317,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37794,10 +37794,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>575.5762670828807</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,16 +38028,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>970.0502436558146</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
